--- a/20230208_feedglucoseconc_ethanolconc.xlsx
+++ b/20230208_feedglucoseconc_ethanolconc.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -109,24 +121,24 @@
   <dimension ref="A1:D39"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.60546875" customWidth="true"/>
-    <col min="3" max="3" width="11.60546875" customWidth="true"/>
-    <col min="4" max="4" width="11.60546875" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -134,13 +146,13 @@
         <v>-100</v>
       </c>
       <c r="B2" s="0">
-        <v>0.000366917512353524</v>
+        <v>0.00036691751235338186</v>
       </c>
       <c r="C2" s="0">
-        <v>30.77253066635808</v>
+        <v>30.772530718066719</v>
       </c>
       <c r="D2" s="0">
-        <v>3.5725002759940025</v>
+        <v>3.5725002925013882</v>
       </c>
     </row>
     <row r="3">
@@ -148,13 +160,13 @@
         <v>-95</v>
       </c>
       <c r="B3" s="0">
-        <v>0.000360790030341425</v>
+        <v>0.00036079003034120063</v>
       </c>
       <c r="C3" s="0">
-        <v>30.513623929420277</v>
+        <v>30.513623981016565</v>
       </c>
       <c r="D3" s="0">
-        <v>3.5434348131727518</v>
+        <v>3.5434348297815745</v>
       </c>
     </row>
     <row r="4">
@@ -162,13 +174,13 @@
         <v>-90</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00035486280378991511</v>
+        <v>0.00035486280378959928</v>
       </c>
       <c r="C4" s="0">
-        <v>30.26368369623151</v>
+        <v>30.263683747712321</v>
       </c>
       <c r="D4" s="0">
-        <v>3.5145243377784254</v>
+        <v>3.5145243545169933</v>
       </c>
     </row>
     <row r="5">
@@ -176,13 +188,13 @@
         <v>-85</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00034912604284856156</v>
+        <v>0.00034912604284847797</v>
       </c>
       <c r="C5" s="0">
-        <v>30.022264579849519</v>
+        <v>30.022264631237846</v>
       </c>
       <c r="D5" s="0">
-        <v>3.485776001506423</v>
+        <v>3.4857760183728885</v>
       </c>
     </row>
     <row r="6">
@@ -193,10 +205,10 @@
         <v>0.00034357055078100275</v>
       </c>
       <c r="C6" s="0">
-        <v>29.767558854558558</v>
+        <v>29.767558723727205</v>
       </c>
       <c r="D6" s="0">
-        <v>3.4649010847741124</v>
+        <v>3.4649011540135177</v>
       </c>
     </row>
     <row r="7">
@@ -204,13 +216,13 @@
         <v>-75</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00033818766884744872</v>
+        <v>0.0003381876688472592</v>
       </c>
       <c r="C7" s="0">
-        <v>29.509570103041767</v>
+        <v>29.509569972641856</v>
       </c>
       <c r="D7" s="0">
-        <v>3.4456100045312041</v>
+        <v>3.4456100742827118</v>
       </c>
     </row>
     <row r="8">
@@ -218,13 +230,13 @@
         <v>-70</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00033296922249478807</v>
+        <v>0.00033296922249458506</v>
       </c>
       <c r="C8" s="0">
-        <v>29.259717502121987</v>
+        <v>29.259717372179892</v>
       </c>
       <c r="D8" s="0">
-        <v>3.4264856148185459</v>
+        <v>3.42648568509955</v>
       </c>
     </row>
     <row r="9">
@@ -235,10 +247,10 @@
         <v>0.00032790746671742876</v>
       </c>
       <c r="C9" s="0">
-        <v>29.017605126198077</v>
+        <v>29.017604995671576</v>
       </c>
       <c r="D9" s="0">
-        <v>3.4075485980237659</v>
+        <v>3.4075486690710193</v>
       </c>
     </row>
     <row r="10">
@@ -246,13 +258,13 @@
         <v>-60</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00032299502740068911</v>
+        <v>0.00032299502740009702</v>
       </c>
       <c r="C10" s="0">
-        <v>28.782852319126164</v>
+        <v>28.782852188968604</v>
       </c>
       <c r="D10" s="0">
-        <v>3.3888267372752239</v>
+        <v>3.3888268088260247</v>
       </c>
     </row>
     <row r="11">
@@ -260,13 +272,13 @@
         <v>-55</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00031822483348158603</v>
+        <v>0.00031822483348119848</v>
       </c>
       <c r="C11" s="0">
-        <v>28.5641552245242</v>
+        <v>28.564155090395104</v>
       </c>
       <c r="D11" s="0">
-        <v>3.3677708703851295</v>
+        <v>3.3677709437262706</v>
       </c>
     </row>
     <row r="12">
@@ -277,10 +289,10 @@
         <v>0.00031359003096497417</v>
       </c>
       <c r="C12" s="0">
-        <v>28.362649047014258</v>
+        <v>28.362648913814354</v>
       </c>
       <c r="D12" s="0">
-        <v>3.3439237429767559</v>
+        <v>3.3439238166477878</v>
       </c>
     </row>
     <row r="13">
@@ -288,13 +300,13 @@
         <v>-45</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00030908386217952789</v>
+        <v>0.00030908386217936998</v>
       </c>
       <c r="C13" s="0">
-        <v>28.16693049615202</v>
+        <v>28.1669303615042</v>
       </c>
       <c r="D13" s="0">
-        <v>3.3204847936218016</v>
+        <v>3.3204848684198112</v>
       </c>
     </row>
     <row r="14">
@@ -302,13 +314,13 @@
         <v>-40</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0003046994773688638</v>
+        <v>0.00030469947736868621</v>
       </c>
       <c r="C14" s="0">
-        <v>27.976622474528313</v>
+        <v>27.976622339989802</v>
       </c>
       <c r="D14" s="0">
-        <v>3.297571603964002</v>
+        <v>3.2975716793419281</v>
       </c>
     </row>
     <row r="15">
@@ -316,13 +328,13 @@
         <v>-35</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00030042960841590067</v>
+        <v>0.00030042960841569766</v>
       </c>
       <c r="C15" s="0">
-        <v>27.791294807663405</v>
+        <v>27.791294673281811</v>
       </c>
       <c r="D15" s="0">
-        <v>3.2753693981637184</v>
+        <v>3.2753694741481922</v>
       </c>
     </row>
     <row r="16">
@@ -333,10 +345,10 @@
         <v>0.00029626594121576015</v>
       </c>
       <c r="C16" s="0">
-        <v>27.610407042779798</v>
+        <v>27.610406907389688</v>
       </c>
       <c r="D16" s="0">
-        <v>3.2541874069762002</v>
+        <v>3.2541874838985336</v>
       </c>
     </row>
     <row r="17">
@@ -344,13 +356,13 @@
         <v>-25</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00029219776199141735</v>
+        <v>0.00029219776199226996</v>
       </c>
       <c r="C17" s="0">
-        <v>27.42692118675356</v>
+        <v>27.42692128952811</v>
       </c>
       <c r="D17" s="0">
-        <v>3.2364741346097787</v>
+        <v>3.2364741401953268</v>
       </c>
     </row>
     <row r="18">
@@ -358,13 +370,13 @@
         <v>-20</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00028820860379568102</v>
+        <v>0.00028820860379532578</v>
       </c>
       <c r="C18" s="0">
-        <v>27.243921862649188</v>
+        <v>27.243921966405736</v>
       </c>
       <c r="D18" s="0">
-        <v>3.2220514275292658</v>
+        <v>3.2220514328580805</v>
       </c>
     </row>
     <row r="19">
@@ -372,13 +384,13 @@
         <v>-15</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00028426622319083585</v>
+        <v>0.00028426622319036217</v>
       </c>
       <c r="C19" s="0">
-        <v>27.045088226278438</v>
+        <v>27.045088307551907</v>
       </c>
       <c r="D19" s="0">
-        <v>3.2196248250446047</v>
+        <v>3.2196248408466204</v>
       </c>
     </row>
     <row r="20">
@@ -386,13 +398,13 @@
         <v>-10</v>
       </c>
       <c r="B20" s="0">
-        <v>0.00028028255772554188</v>
+        <v>0.00028028255772625241</v>
       </c>
       <c r="C20" s="0">
-        <v>26.836068259324804</v>
+        <v>26.836068339330382</v>
       </c>
       <c r="D20" s="0">
-        <v>3.2285007664669365</v>
+        <v>3.2285007827615573</v>
       </c>
     </row>
     <row r="21">
@@ -400,13 +412,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00026806473290790221</v>
+        <v>0.00026806473290648115</v>
       </c>
       <c r="C21" s="0">
-        <v>26.292469798829785</v>
+        <v>26.292469680772228</v>
       </c>
       <c r="D21" s="0">
-        <v>3.0091668088449239</v>
+        <v>3.0091668812463581</v>
       </c>
     </row>
     <row r="22">
@@ -414,13 +426,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0002645217940326461</v>
+        <v>0.00026452179403217241</v>
       </c>
       <c r="C22" s="0">
-        <v>26.098375194742317</v>
+        <v>26.098375075686363</v>
       </c>
       <c r="D22" s="0">
-        <v>3.0206001806957659</v>
+        <v>3.0206002538832877</v>
       </c>
     </row>
     <row r="23">
@@ -428,13 +440,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="0">
-        <v>0.000261197619157727</v>
+        <v>0.00026119761915737171</v>
       </c>
       <c r="C23" s="0">
-        <v>25.921357382519432</v>
+        <v>25.921357261054595</v>
       </c>
       <c r="D23" s="0">
-        <v>3.019145488796994</v>
+        <v>3.0191455631026543</v>
       </c>
     </row>
     <row r="24">
@@ -442,13 +454,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="0">
-        <v>0.00025800534118957329</v>
+        <v>0.00025800534118843645</v>
       </c>
       <c r="C24" s="0">
-        <v>25.753554216179992</v>
+        <v>25.753554094719789</v>
       </c>
       <c r="D24" s="0">
-        <v>3.0125646741292655</v>
+        <v>3.012564748898626</v>
       </c>
     </row>
     <row r="25">
@@ -456,13 +468,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="0">
-        <v>0.00025491426345401654</v>
+        <v>0.00025491426345354286</v>
       </c>
       <c r="C25" s="0">
-        <v>25.59368038466269</v>
+        <v>25.593680254294014</v>
       </c>
       <c r="D25" s="0">
-        <v>3.0030274278360309</v>
+        <v>3.003027505676215</v>
       </c>
     </row>
     <row r="26">
@@ -470,13 +482,13 @@
         <v>35</v>
       </c>
       <c r="B26" s="0">
-        <v>0.00025190982469009017</v>
+        <v>0.00025190982468968414</v>
       </c>
       <c r="C26" s="0">
-        <v>25.452427242226008</v>
+        <v>25.452427112265241</v>
       </c>
       <c r="D26" s="0">
-        <v>2.9881208373107597</v>
+        <v>2.9881209155383885</v>
       </c>
     </row>
     <row r="27">
@@ -484,13 +496,13 @@
         <v>40</v>
       </c>
       <c r="B27" s="0">
-        <v>0.00024898358506657557</v>
+        <v>0.00024898358506675322</v>
       </c>
       <c r="C27" s="0">
-        <v>25.315470124429254</v>
+        <v>25.315469993028586</v>
       </c>
       <c r="D27" s="0">
-        <v>2.9723566425422803</v>
+        <v>2.9723567218009919</v>
       </c>
     </row>
     <row r="28">
@@ -498,13 +510,13 @@
         <v>45</v>
       </c>
       <c r="B28" s="0">
-        <v>0.00024612988391241845</v>
+        <v>0.00024612988391178685</v>
       </c>
       <c r="C28" s="0">
-        <v>25.182387164496703</v>
+        <v>25.182387033374624</v>
       </c>
       <c r="D28" s="0">
-        <v>2.9560416541093275</v>
+        <v>2.9560417337757201</v>
       </c>
     </row>
     <row r="29">
@@ -512,13 +524,13 @@
         <v>50</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00024334449925845548</v>
+        <v>0.00024334449925802914</v>
       </c>
       <c r="C29" s="0">
-        <v>25.052884076940018</v>
+        <v>25.052883945385702</v>
       </c>
       <c r="D29" s="0">
-        <v>2.9393597791291199</v>
+        <v>2.9393598595102617</v>
       </c>
     </row>
     <row r="30">
@@ -526,13 +538,13 @@
         <v>55</v>
       </c>
       <c r="B30" s="0">
-        <v>0.00024062403556787226</v>
+        <v>0.00024062403556722632</v>
       </c>
       <c r="C30" s="0">
-        <v>24.926738247472429</v>
+        <v>24.926738116130934</v>
       </c>
       <c r="D30" s="0">
-        <v>2.9224278877313736</v>
+        <v>2.9224279685600436</v>
       </c>
     </row>
     <row r="31">
@@ -540,13 +552,13 @@
         <v>60</v>
       </c>
       <c r="B31" s="0">
-        <v>0.00023796561507912392</v>
+        <v>0.00023796561507865021</v>
       </c>
       <c r="C31" s="0">
-        <v>24.802951236209822</v>
+        <v>24.802951318480154</v>
       </c>
       <c r="D31" s="0">
-        <v>2.9055740119251254</v>
+        <v>2.9055740280748523</v>
       </c>
     </row>
     <row r="32">
@@ -554,13 +566,13 @@
         <v>65</v>
       </c>
       <c r="B32" s="0">
-        <v>0.00023536670946231635</v>
+        <v>0.00023536670946209772</v>
       </c>
       <c r="C32" s="0">
-        <v>24.67638415352738</v>
+        <v>24.676384236619924</v>
       </c>
       <c r="D32" s="0">
-        <v>2.8903916052850889</v>
+        <v>2.8903916212332774</v>
       </c>
     </row>
     <row r="33">
@@ -568,13 +580,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="0">
-        <v>0.00023282504177757346</v>
+        <v>0.00023282504177696444</v>
       </c>
       <c r="C33" s="0">
-        <v>24.552834877643988</v>
+        <v>24.552834960299748</v>
       </c>
       <c r="D33" s="0">
-        <v>2.8751200552695764</v>
+        <v>2.8751200714177969</v>
       </c>
     </row>
     <row r="34">
@@ -582,13 +594,13 @@
         <v>75</v>
       </c>
       <c r="B34" s="0">
-        <v>0.00023033852605616783</v>
+        <v>0.0002303385260558836</v>
       </c>
       <c r="C34" s="0">
-        <v>24.432182734826938</v>
+        <v>24.432182817187709</v>
       </c>
       <c r="D34" s="0">
-        <v>2.8597874370610725</v>
+        <v>2.8597874533797949</v>
       </c>
     </row>
     <row r="35">
@@ -596,13 +608,13 @@
         <v>80</v>
       </c>
       <c r="B35" s="0">
-        <v>0.00022790522815814286</v>
+        <v>0.00022790522815769877</v>
       </c>
       <c r="C35" s="0">
-        <v>24.314318015785943</v>
+        <v>24.314318099292564</v>
       </c>
       <c r="D35" s="0">
-        <v>2.8444147178092294</v>
+        <v>2.8444147337943377</v>
       </c>
     </row>
     <row r="36">
@@ -610,13 +622,13 @@
         <v>85</v>
       </c>
       <c r="B36" s="0">
-        <v>0.00022552333923421067</v>
+        <v>0.00022552333923395989</v>
       </c>
       <c r="C36" s="0">
-        <v>24.199139695291677</v>
+        <v>24.199139778055724</v>
       </c>
       <c r="D36" s="0">
-        <v>2.8290178474373704</v>
+        <v>2.829017863760896</v>
       </c>
     </row>
     <row r="37">
@@ -624,13 +636,13 @@
         <v>90</v>
       </c>
       <c r="B37" s="0">
-        <v>0.00022319115697908072</v>
+        <v>0.00022319115697868596</v>
       </c>
       <c r="C37" s="0">
-        <v>24.086553850654809</v>
+        <v>24.086553933591063</v>
       </c>
       <c r="D37" s="0">
-        <v>2.8136091549764046</v>
+        <v>2.8136091712860321</v>
       </c>
     </row>
     <row r="38">
@@ -638,13 +650,13 @@
         <v>95</v>
       </c>
       <c r="B38" s="0">
-        <v>0.00022090707187046339</v>
+        <v>0.00022090707187008942</v>
       </c>
       <c r="C38" s="0">
-        <v>23.9764725375978</v>
+        <v>23.976472620718283</v>
       </c>
       <c r="D38" s="0">
-        <v>2.7981983012799958</v>
+        <v>2.7981983176046867</v>
       </c>
     </row>
     <row r="39">
@@ -652,13 +664,13 @@
         <v>100</v>
       </c>
       <c r="B39" s="0">
-        <v>0.00021866955671796971</v>
+        <v>0.00021866955671761445</v>
       </c>
       <c r="C39" s="0">
-        <v>23.858302556054554</v>
+        <v>23.858302442183714</v>
       </c>
       <c r="D39" s="0">
-        <v>2.7884978908091682</v>
+        <v>2.7884979669137522</v>
       </c>
     </row>
   </sheetData>

--- a/20230208_feedglucoseconc_ethanolconc.xlsx
+++ b/20230208_feedglucoseconc_ethanolconc.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -118,559 +142,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="B2" s="0">
-        <v>0.00036691751235338186</v>
+        <v>0.0048890038664161752</v>
       </c>
       <c r="C2" s="0">
-        <v>30.772530718066719</v>
+        <v>31.757833884221668</v>
       </c>
       <c r="D2" s="0">
-        <v>3.5725002925013882</v>
+        <v>3.703723888462207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-95</v>
+        <v>-19</v>
       </c>
       <c r="B3" s="0">
-        <v>0.00036079003034120063</v>
+        <v>0.0047564084279428402</v>
       </c>
       <c r="C3" s="0">
-        <v>30.513623981016565</v>
+        <v>31.381128440158221</v>
       </c>
       <c r="D3" s="0">
-        <v>3.5434348297815745</v>
+        <v>3.667112186683795</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-90</v>
+        <v>-18</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00035486280378959928</v>
+        <v>0.0046271140082900786</v>
       </c>
       <c r="C4" s="0">
-        <v>30.263683747712321</v>
+        <v>31.021534414015889</v>
       </c>
       <c r="D4" s="0">
-        <v>3.5145243545169933</v>
+        <v>3.630669355732266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-85</v>
+        <v>-17</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00034912604284847797</v>
+        <v>0.0046315052178463679</v>
       </c>
       <c r="C5" s="0">
-        <v>30.022264631237846</v>
+        <v>30.792455916609981</v>
       </c>
       <c r="D5" s="0">
-        <v>3.4857760183728885</v>
+        <v>3.6060514266309269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-80</v>
+        <v>-16</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00034357055078100275</v>
+        <v>0.004509225010249196</v>
       </c>
       <c r="C6" s="0">
-        <v>29.767558723727205</v>
+        <v>30.461541346144031</v>
       </c>
       <c r="D6" s="0">
-        <v>3.4649011540135177</v>
+        <v>3.5693128090499613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-75</v>
+        <v>-15</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0003381876688472592</v>
+        <v>0.0043888388556666772</v>
       </c>
       <c r="C7" s="0">
-        <v>29.509569972641856</v>
+        <v>30.145021931335663</v>
       </c>
       <c r="D7" s="0">
-        <v>3.4456100742827118</v>
+        <v>3.5328089353826897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-70</v>
+        <v>-14</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00033296922249458506</v>
+        <v>0.0042695708490535977</v>
       </c>
       <c r="C8" s="0">
-        <v>29.259717372179892</v>
+        <v>29.838057651314131</v>
       </c>
       <c r="D8" s="0">
-        <v>3.42648568509955</v>
+        <v>3.4986626646033017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-65</v>
+        <v>-13</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00032790746671742876</v>
+        <v>0.0042976780438709079</v>
       </c>
       <c r="C9" s="0">
-        <v>29.017604995671576</v>
+        <v>29.625159018486784</v>
       </c>
       <c r="D9" s="0">
-        <v>3.4075486690710193</v>
+        <v>3.4796780385326542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-60</v>
+        <v>-12</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00032299502740009702</v>
+        <v>0.0041837767520765583</v>
       </c>
       <c r="C10" s="0">
-        <v>28.782852188968604</v>
+        <v>29.316588576955326</v>
       </c>
       <c r="D10" s="0">
-        <v>3.3888268088260247</v>
+        <v>3.4514122573430086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-55</v>
+        <v>-11</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00031822483348119848</v>
+        <v>0.004069016211847621</v>
       </c>
       <c r="C11" s="0">
-        <v>28.564155090395104</v>
+        <v>29.020253191193916</v>
       </c>
       <c r="D11" s="0">
-        <v>3.3677709437262706</v>
+        <v>3.4234305596538377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-50</v>
+        <v>-10</v>
       </c>
       <c r="B12" s="0">
-        <v>0.00031359003096497417</v>
+        <v>0.0039519049341933512</v>
       </c>
       <c r="C12" s="0">
-        <v>28.362648913814354</v>
+        <v>28.735404247320844</v>
       </c>
       <c r="D12" s="0">
-        <v>3.3439238166477878</v>
+        <v>3.3957821409121607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00030908386217936998</v>
+        <v>0.0040149337265873442</v>
       </c>
       <c r="C13" s="0">
-        <v>28.1669303615042</v>
+        <v>28.551528926230645</v>
       </c>
       <c r="D13" s="0">
-        <v>3.3204848684198112</v>
+        <v>3.3775703123095866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-40</v>
+        <v>-8</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00030469947736868621</v>
+        <v>0.003901580704749108</v>
       </c>
       <c r="C14" s="0">
-        <v>27.976622339989802</v>
+        <v>28.28422087988605</v>
       </c>
       <c r="D14" s="0">
-        <v>3.2975716793419281</v>
+        <v>3.350663182191397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00030042960841569766</v>
+        <v>0.0037811752342824839</v>
       </c>
       <c r="C15" s="0">
-        <v>27.791294673281811</v>
+        <v>28.026460591090142</v>
       </c>
       <c r="D15" s="0">
-        <v>3.2753694741481922</v>
+        <v>3.3244009579135536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-30</v>
+        <v>-6</v>
       </c>
       <c r="B16" s="0">
-        <v>0.00029626594121576015</v>
+        <v>0.0036486273758763823</v>
       </c>
       <c r="C16" s="0">
-        <v>27.610406907389688</v>
+        <v>27.777425587335188</v>
       </c>
       <c r="D16" s="0">
-        <v>3.2541874838985336</v>
+        <v>3.2990734597699429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00029219776199226996</v>
+        <v>0.0037859520868167352</v>
       </c>
       <c r="C17" s="0">
-        <v>27.42692128952811</v>
+        <v>27.615747310654484</v>
       </c>
       <c r="D17" s="0">
-        <v>3.2364741401953268</v>
+        <v>3.2829638465633195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00028820860379532578</v>
+        <v>0.0036535279160965217</v>
       </c>
       <c r="C18" s="0">
-        <v>27.243921966405736</v>
+        <v>27.378632436781317</v>
       </c>
       <c r="D18" s="0">
-        <v>3.2220514328580805</v>
+        <v>3.2607317705111143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00028426622319036217</v>
+        <v>0.0034814741415919079</v>
       </c>
       <c r="C19" s="0">
-        <v>27.045088307551907</v>
+        <v>27.145418922146831</v>
       </c>
       <c r="D19" s="0">
-        <v>3.2196248408466204</v>
+        <v>3.2430125725121286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="B20" s="0">
-        <v>0.00028028255772625241</v>
+        <v>0.0032067167341445213</v>
       </c>
       <c r="C20" s="0">
-        <v>26.836068339330382</v>
+        <v>26.907802992806154</v>
       </c>
       <c r="D20" s="0">
-        <v>3.2285007827615573</v>
+        <v>3.237708337674718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00026806473290648115</v>
+        <v>0.0037997932728259798</v>
       </c>
       <c r="C21" s="0">
-        <v>26.292469680772228</v>
+        <v>26.715118949725621</v>
       </c>
       <c r="D21" s="0">
-        <v>3.0091668812463581</v>
+        <v>3.2645071483297841</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>0.00026452179403217241</v>
+        <v>0.003708033665475341</v>
       </c>
       <c r="C22" s="0">
-        <v>26.098375075686363</v>
+        <v>26.472480160174484</v>
       </c>
       <c r="D22" s="0">
-        <v>3.0206002538832877</v>
+        <v>3.0220222123224971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>0.00026119761915737171</v>
+        <v>0.0036426626656620442</v>
       </c>
       <c r="C23" s="0">
-        <v>25.921357261054595</v>
+        <v>26.212693324276188</v>
       </c>
       <c r="D23" s="0">
-        <v>3.0191455631026543</v>
+        <v>3.0507811904648179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0">
-        <v>0.00025800534118843645</v>
+        <v>0.0032028279493966729</v>
       </c>
       <c r="C24" s="0">
-        <v>25.753554094719789</v>
+        <v>26.064022043380646</v>
       </c>
       <c r="D24" s="0">
-        <v>3.012564748898626</v>
+        <v>3.0491963837350795</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0">
-        <v>0.00025491426345354286</v>
+        <v>0.0032511076930727967</v>
       </c>
       <c r="C25" s="0">
-        <v>25.593680254294014</v>
+        <v>25.854949361956841</v>
       </c>
       <c r="D25" s="0">
-        <v>3.003027505676215</v>
+        <v>3.0383805533313932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0">
-        <v>0.00025190982468968414</v>
+        <v>0.0032596192592095007</v>
       </c>
       <c r="C26" s="0">
-        <v>25.452427112265241</v>
+        <v>25.656519469647407</v>
       </c>
       <c r="D26" s="0">
-        <v>2.9881209155383885</v>
+        <v>3.0232753511916997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B27" s="0">
-        <v>0.00024898358506675322</v>
+        <v>0.0032490036057003144</v>
       </c>
       <c r="C27" s="0">
-        <v>25.315469993028586</v>
+        <v>25.466207361901922</v>
       </c>
       <c r="D27" s="0">
-        <v>2.9723567218009919</v>
+        <v>3.0061794007979756</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0">
-        <v>0.00024612988391178685</v>
+        <v>0.0030817801116802862</v>
       </c>
       <c r="C28" s="0">
-        <v>25.182387033374624</v>
+        <v>25.34309077985597</v>
       </c>
       <c r="D28" s="0">
-        <v>2.9560417337757201</v>
+        <v>2.9941991738446063</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00024334449925802914</v>
+        <v>0.003076858524561743</v>
       </c>
       <c r="C29" s="0">
-        <v>25.052883945385702</v>
+        <v>25.163761606986668</v>
       </c>
       <c r="D29" s="0">
-        <v>2.9393598595102617</v>
+        <v>2.9756408104324237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B30" s="0">
-        <v>0.00024062403556722632</v>
+        <v>0.0030633782106272</v>
       </c>
       <c r="C30" s="0">
-        <v>24.926738116130934</v>
+        <v>24.990280122605299</v>
       </c>
       <c r="D30" s="0">
-        <v>2.9224279685600436</v>
+        <v>2.9566526269790359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0">
-        <v>0.00023796561507865021</v>
+        <v>0.0030442728213991186</v>
       </c>
       <c r="C31" s="0">
-        <v>24.802951318480154</v>
+        <v>24.822255965718568</v>
       </c>
       <c r="D31" s="0">
-        <v>2.9055740280748523</v>
+        <v>2.9373997950253283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B32" s="0">
-        <v>0.00023536670946209772</v>
+        <v>0.0029375543724234694</v>
       </c>
       <c r="C32" s="0">
-        <v>24.676384236619924</v>
+        <v>24.713114512363177</v>
       </c>
       <c r="D32" s="0">
-        <v>2.8903916212332774</v>
+        <v>2.9244690710548298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B33" s="0">
-        <v>0.00023282504177696444</v>
+        <v>0.0029211939596673155</v>
       </c>
       <c r="C33" s="0">
-        <v>24.552834960299748</v>
+        <v>24.553512285856726</v>
       </c>
       <c r="D33" s="0">
-        <v>2.8751200714177969</v>
+        <v>2.9049810750195491</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B34" s="0">
-        <v>0.0002303385260558836</v>
+        <v>0.0029016272335209256</v>
       </c>
       <c r="C34" s="0">
-        <v>24.432182817187709</v>
+        <v>24.398627442885498</v>
       </c>
       <c r="D34" s="0">
-        <v>2.8597874533797949</v>
+        <v>2.8854253781808268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0">
-        <v>0.00022790522815769877</v>
+        <v>0.0028797543110883339</v>
       </c>
       <c r="C35" s="0">
-        <v>24.314318099292564</v>
+        <v>24.248241678158792</v>
       </c>
       <c r="D35" s="0">
-        <v>2.8444147337943377</v>
+        <v>2.8658361811251609</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0">
-        <v>0.00022552333923395989</v>
+        <v>0.0028005703260788549</v>
       </c>
       <c r="C36" s="0">
-        <v>24.199139778055724</v>
+        <v>24.150385173155968</v>
       </c>
       <c r="D36" s="0">
-        <v>2.829017863760896</v>
+        <v>2.8527703709515038</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B37" s="0">
-        <v>0.00022319115697868596</v>
+        <v>0.0027806958697680351</v>
       </c>
       <c r="C37" s="0">
-        <v>24.086553933591063</v>
+        <v>24.007064085632521</v>
       </c>
       <c r="D37" s="0">
-        <v>2.8136091712860321</v>
+        <v>2.8331758089933032</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B38" s="0">
-        <v>0.00022090707187008942</v>
+        <v>0.0027593827196734904</v>
       </c>
       <c r="C38" s="0">
-        <v>23.976472620718283</v>
+        <v>23.867745531556494</v>
       </c>
       <c r="D38" s="0">
-        <v>2.7981983176046867</v>
+        <v>2.8135986568616147</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0">
-        <v>0.00021866955671761445</v>
+        <v>0.0027370070263859564</v>
       </c>
       <c r="C39" s="0">
-        <v>23.858302442183714</v>
+        <v>23.71932725330754</v>
       </c>
       <c r="D39" s="0">
-        <v>2.7884979669137522</v>
+        <v>2.799522583966052</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>19</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.0026738976855660056</v>
+      </c>
+      <c r="C40" s="0">
+        <v>23.620998896593704</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2.789505033242591</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>20</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.0026531439687342839</v>
+      </c>
+      <c r="C41" s="0">
+        <v>23.47674498946418</v>
+      </c>
+      <c r="D41" s="0">
+        <v>2.7744975743962641</v>
       </c>
     </row>
   </sheetData>
